--- a/biology/Zoologie/Hamptophryne/Hamptophryne.xlsx
+++ b/biology/Zoologie/Hamptophryne/Hamptophryne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamptophryne  est un genre d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamptophryne  est un genre d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 2 espèces de ce genre se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 2 espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 juin 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 juin 2014) :
 Hamptophryne alios (Wild, 1995)
 Hamptophryne boliviana (Parker, 1927)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Altigius[3] a été synonymisé avec Hamptophryne par de Sá, Streicher, Sekonyela, Forlani, Loader, Greenbaum, Richards &amp; Haddad en 2012[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Altigius a été synonymisé avec Hamptophryne par de Sá, Streicher, Sekonyela, Forlani, Loader, Greenbaum, Richards &amp; Haddad en 2012.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de ce genre est formé à partir de Hampto, en l'honneur d'Hampton Wildman Parker, et du mot grec phrynos, le crapaud[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de ce genre est formé à partir de Hampto, en l'honneur d'Hampton Wildman Parker, et du mot grec phrynos, le crapaud.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Carvalho, 1954 : A preliminary synopsis of the genera of American microhylid frogs. Occasional papers of the Museum of Zoology, University of Michigan, vol. 555, p. 1-19 (texte intégral).
 Wild, 1995 : New genus and species of Amazonian microhylid frog with a phylogenetic analysis of new world genera. Copeia, vol. 1995, no 4, p. 837-849 (texte intégral).</t>
